--- a/ICT00-课程设计-文档/doc/分工与评分.xlsx
+++ b/ICT00-课程设计-文档/doc/分工与评分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12390"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,22 +45,22 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>张一</t>
-  </si>
-  <si>
-    <t>张二</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>张四</t>
-  </si>
-  <si>
-    <t>张五</t>
-  </si>
-  <si>
-    <t>张六</t>
+    <t>陈翌玮</t>
+  </si>
+  <si>
+    <t>陈辉宇</t>
+  </si>
+  <si>
+    <t>陈铭涛</t>
+  </si>
+  <si>
+    <t>陈源浩</t>
+  </si>
+  <si>
+    <t>蔡徐坤</t>
+  </si>
+  <si>
+    <t>叶超强</t>
   </si>
   <si>
     <t>李一</t>
@@ -254,10 +254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -299,83 +299,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,7 +314,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,8 +364,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,6 +425,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -473,43 +473,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,55 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,73 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,13 +808,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,25 +862,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -867,17 +886,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,23 +900,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,145 +913,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1500,18 +1500,20 @@
   <sheetPr/>
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="38.625" customWidth="1"/>
-    <col min="2" max="13" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="3" max="3" width="4.99166666666667" customWidth="1"/>
+    <col min="4" max="13" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
@@ -1610,24 +1612,12 @@
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8">
-        <v>2018000001</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2018000002</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2018000003</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2018000004</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2018000005</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2018000006</v>
-      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>2018000011</v>
       </c>
@@ -1752,7 +1742,9 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -1861,7 +1853,9 @@
         <v>27</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1880,7 +1874,9 @@
         <v>28</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -1900,7 +1896,9 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="20"/>
@@ -1965,7 +1963,9 @@
         <v>31</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1984,7 +1984,9 @@
         <v>32</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="16">
+        <v>1</v>
+      </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2004,7 +2006,9 @@
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="20"/>
@@ -2072,7 +2076,9 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
       <c r="G18" s="20"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -2087,7 +2093,9 @@
       <c r="A19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="16">
+        <v>1</v>
+      </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -2107,7 +2115,9 @@
         <v>37</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -2127,7 +2137,9 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="D21" s="16">
+        <v>1</v>
+      </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
@@ -2192,7 +2204,9 @@
         <v>40</v>
       </c>
       <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="C23" s="16">
+        <v>1</v>
+      </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -2211,7 +2225,9 @@
         <v>41</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -2230,7 +2246,9 @@
         <v>42</v>
       </c>
       <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="C25" s="16">
+        <v>1</v>
+      </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -2250,7 +2268,9 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="20"/>
@@ -2336,7 +2356,9 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="16">
+        <v>1</v>
+      </c>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
       <c r="H29" s="16"/>
@@ -2355,7 +2377,9 @@
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="13">
+        <v>1</v>
+      </c>
       <c r="F30" s="13"/>
       <c r="G30" s="20"/>
       <c r="H30" s="13"/>
@@ -2374,7 +2398,9 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="16">
+        <v>1</v>
+      </c>
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>
       <c r="H31" s="16"/>
@@ -2393,7 +2419,9 @@
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
       <c r="F32" s="13"/>
       <c r="G32" s="20"/>
       <c r="H32" s="13"/>
@@ -2456,7 +2484,9 @@
       <c r="A34" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -2475,7 +2505,9 @@
       <c r="A35" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="16"/>
+      <c r="B35" s="16">
+        <v>1</v>
+      </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -2494,7 +2526,9 @@
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="13">
+        <v>1</v>
+      </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -2513,7 +2547,9 @@
       <c r="A37" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="16"/>
+      <c r="B37" s="16">
+        <v>1</v>
+      </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -2584,7 +2620,9 @@
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
@@ -2603,7 +2641,9 @@
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="20"/>
+      <c r="G40" s="20">
+        <v>1</v>
+      </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
@@ -2622,7 +2662,9 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
+      <c r="G41" s="17">
+        <v>1</v>
+      </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
@@ -2641,7 +2683,9 @@
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="20"/>
+      <c r="G42" s="20">
+        <v>1</v>
+      </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
@@ -2706,7 +2750,9 @@
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+      <c r="F44" s="13">
+        <v>1</v>
+      </c>
       <c r="G44" s="20"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
@@ -2725,7 +2771,9 @@
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
+      <c r="F45" s="16">
+        <v>1</v>
+      </c>
       <c r="G45" s="17"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
@@ -2744,7 +2792,9 @@
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="F46" s="13">
+        <v>1</v>
+      </c>
       <c r="G46" s="20"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
@@ -2763,7 +2813,9 @@
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="F47" s="16">
+        <v>1</v>
+      </c>
       <c r="G47" s="17"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
@@ -2849,7 +2901,9 @@
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="20"/>
+      <c r="G50" s="20">
+        <v>1</v>
+      </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
@@ -2866,7 +2920,9 @@
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
+      <c r="E51" s="16">
+        <v>1</v>
+      </c>
       <c r="F51" s="16"/>
       <c r="G51" s="17"/>
       <c r="H51" s="16"/>
@@ -2886,7 +2942,9 @@
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
+      <c r="F52" s="21">
+        <v>1</v>
+      </c>
       <c r="G52" s="22"/>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
@@ -2903,7 +2961,9 @@
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="D53" s="23">
+        <v>1</v>
+      </c>
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
       <c r="G53" s="24"/>
@@ -2920,7 +2980,9 @@
       <c r="A54" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="25"/>
+      <c r="B54" s="25">
+        <v>1</v>
+      </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -2942,7 +3004,9 @@
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
+      <c r="E55" s="27">
+        <v>1</v>
+      </c>
       <c r="F55" s="27"/>
       <c r="G55" s="28"/>
       <c r="H55" s="27"/>
@@ -2959,7 +3023,9 @@
         <v>73</v>
       </c>
       <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
+      <c r="C56" s="25">
+        <v>1</v>
+      </c>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
@@ -2979,7 +3045,9 @@
       </c>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="D57" s="27">
+        <v>1</v>
+      </c>
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
       <c r="G57" s="28"/>
